--- a/apps/load_data/2017/05/PLMOVMAE.xlsx
+++ b/apps/load_data/2017/05/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2017\HHY0517\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2017\HHY0517\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0377D27C-A4A1-465A-8294-486A381F57D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EADEB8B-10DE-4C3E-B8F9-ED80A9B80896}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$249</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$249</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10232" uniqueCount="2462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10220" uniqueCount="2461">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6392,9 +6393,6 @@
   </si>
   <si>
     <t>08771747</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1047    123169    1231691081    296920    2969201082    159880    1598802001         0     386002006     39200     392002026    200868    2008682027      3068      30682086      2500      25002180       250       2502182       100       100</t>
@@ -7414,7 +7412,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -8254,10 +8252,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD220" sqref="AC209:AD220"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -45422,12 +45422,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2123</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>104</v>
       </c>
@@ -45492,10 +45487,10 @@
         <v>111</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2124</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2125</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>114</v>
@@ -45504,7 +45499,7 @@
         <v>103</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>118</v>
@@ -45525,13 +45520,13 @@
         <v>98</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2127</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2128</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2129</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -45566,13 +45561,13 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2130</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2131</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2132</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
@@ -45607,12 +45602,7 @@
       <c r="AB210" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2123</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>104</v>
       </c>
@@ -45659,7 +45649,7 @@
         <v>98</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="BB210" s="1">
         <v>5</v>
@@ -45677,7 +45667,7 @@
         <v>111</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>1534</v>
@@ -45692,13 +45682,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>118</v>
@@ -45722,13 +45712,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1762</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -45763,13 +45753,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2139</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2140</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2141</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -45804,12 +45794,7 @@
       <c r="AB211" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2123</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>104</v>
       </c>
@@ -45856,7 +45841,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="BB211" s="1">
         <v>5</v>
@@ -45877,10 +45862,10 @@
         <v>111</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2143</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2144</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>114</v>
@@ -45892,13 +45877,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>118</v>
@@ -45922,13 +45907,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2147</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2148</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2149</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -45963,16 +45948,16 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2150</v>
-      </c>
-      <c r="L212" s="1" t="s">
-        <v>2151</v>
       </c>
       <c r="M212" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -46004,12 +45989,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2123</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>104</v>
       </c>
@@ -46059,7 +46039,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="BB212" s="1">
         <v>5</v>
@@ -46077,10 +46057,10 @@
         <v>111</v>
       </c>
       <c r="BH212" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="BI212" s="1" t="s">
         <v>2154</v>
-      </c>
-      <c r="BI212" s="1" t="s">
-        <v>2155</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>114</v>
@@ -46089,7 +46069,7 @@
         <v>103</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>118</v>
@@ -46107,13 +46087,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1099</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -46148,16 +46128,16 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2159</v>
-      </c>
-      <c r="L213" s="1" t="s">
-        <v>2160</v>
       </c>
       <c r="M213" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -46189,12 +46169,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2123</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>104</v>
       </c>
@@ -46244,7 +46219,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="BB213" s="1">
         <v>5</v>
@@ -46262,7 +46237,7 @@
         <v>111</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>1009</v>
@@ -46274,7 +46249,7 @@
         <v>103</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>118</v>
@@ -46295,10 +46270,10 @@
         <v>637</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2165</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2166</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -46333,16 +46308,16 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2167</v>
-      </c>
-      <c r="L214" s="1" t="s">
-        <v>2168</v>
       </c>
       <c r="M214" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N214" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -46374,12 +46349,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2123</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>104</v>
       </c>
@@ -46429,7 +46399,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="BB214" s="1">
         <v>5</v>
@@ -46447,10 +46417,10 @@
         <v>111</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="BI214" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="BM214" s="1" t="s">
         <v>114</v>
@@ -46459,7 +46429,7 @@
         <v>103</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>118</v>
@@ -46477,13 +46447,13 @@
         <v>98</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2173</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2173</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2174</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -46518,13 +46488,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2175</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2176</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2177</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -46562,12 +46532,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2123</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>104</v>
       </c>
@@ -46614,7 +46579,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="BB215" s="1">
         <v>5</v>
@@ -46623,7 +46588,7 @@
         <v>17</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>109</v>
@@ -46635,7 +46600,7 @@
         <v>111</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>254</v>
@@ -46650,13 +46615,13 @@
         <v>115</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>118</v>
@@ -46674,13 +46639,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2183</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2184</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2185</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -46715,16 +46680,16 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2186</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2187</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -46756,12 +46721,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2123</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>104</v>
       </c>
@@ -46811,7 +46771,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="BB216" s="1">
         <v>5</v>
@@ -46829,10 +46789,10 @@
         <v>111</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="BI216" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>114</v>
@@ -46841,7 +46801,7 @@
         <v>103</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>118</v>
@@ -46859,13 +46819,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2192</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2193</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2194</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -46900,16 +46860,16 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2195</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2196</v>
       </c>
       <c r="M217" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -46941,12 +46901,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2123</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>104</v>
       </c>
@@ -46996,7 +46951,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="BB217" s="1">
         <v>5</v>
@@ -47014,7 +46969,7 @@
         <v>111</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>845</v>
@@ -47029,7 +46984,7 @@
         <v>153</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>118</v>
@@ -47047,13 +47002,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2201</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2202</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2203</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -47088,13 +47043,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2204</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2205</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2206</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -47126,12 +47081,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2123</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>104</v>
       </c>
@@ -47178,7 +47128,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="BB218" s="1">
         <v>5</v>
@@ -47187,7 +47137,7 @@
         <v>17</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>109</v>
@@ -47199,10 +47149,10 @@
         <v>111</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2209</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2210</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>114</v>
@@ -47214,13 +47164,13 @@
         <v>205</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>118</v>
@@ -47238,13 +47188,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>423</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -47279,13 +47229,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2215</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2216</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2217</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -47320,12 +47270,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2123</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>104</v>
       </c>
@@ -47375,7 +47320,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="BB219" s="1">
         <v>5</v>
@@ -47396,10 +47341,10 @@
         <v>111</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2219</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2220</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>114</v>
@@ -47408,7 +47353,7 @@
         <v>103</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>118</v>
@@ -47429,13 +47374,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2222</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2223</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2224</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -47470,16 +47415,16 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2225</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2226</v>
       </c>
       <c r="M220" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -47511,12 +47456,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2123</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>104</v>
       </c>
@@ -47563,7 +47503,7 @@
         <v>98</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="BB220" s="1">
         <v>5</v>
@@ -47584,10 +47524,10 @@
         <v>111</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2229</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2230</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>114</v>
@@ -47599,13 +47539,13 @@
         <v>115</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>118</v>
@@ -47623,13 +47563,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1597</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -47664,13 +47604,13 @@
         <v>314</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2236</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2237</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -47721,7 +47661,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -47766,13 +47706,13 @@
         <v>111</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>118</v>
@@ -47796,10 +47736,10 @@
         <v>2022</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2241</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2242</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -47834,13 +47774,13 @@
         <v>314</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2244</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2245</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -47894,7 +47834,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -47939,13 +47879,13 @@
         <v>111</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>118</v>
@@ -47966,13 +47906,13 @@
         <v>98</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2249</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2250</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -48007,13 +47947,13 @@
         <v>314</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2252</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2253</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -48067,7 +48007,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -48112,13 +48052,13 @@
         <v>111</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>118</v>
@@ -48139,13 +48079,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2256</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2257</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2258</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -48180,13 +48120,13 @@
         <v>314</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2259</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2260</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2261</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -48282,13 +48222,13 @@
         <v>111</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>118</v>
@@ -48309,10 +48249,10 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>193</v>
@@ -48350,13 +48290,13 @@
         <v>314</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2265</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2266</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2267</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -48410,7 +48350,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -48455,13 +48395,13 @@
         <v>111</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>118</v>
@@ -48485,13 +48425,13 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1121</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -48526,13 +48466,13 @@
         <v>314</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2272</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2273</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2274</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -48583,7 +48523,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -48628,13 +48568,13 @@
         <v>111</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>118</v>
@@ -48655,13 +48595,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2278</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2193</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2279</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -48696,10 +48636,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2280</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2281</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>216</v>
@@ -48768,7 +48708,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -48786,7 +48726,7 @@
         <v>220</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -48821,10 +48761,10 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2283</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2284</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>216</v>
@@ -48908,7 +48848,7 @@
         <v>220</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -48943,13 +48883,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2285</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2286</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2287</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -49030,7 +48970,7 @@
         <v>98</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="BB229" s="1">
         <v>5</v>
@@ -49048,7 +48988,7 @@
         <v>111</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>1637</v>
@@ -49063,7 +49003,7 @@
         <v>153</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>118</v>
@@ -49081,13 +49021,13 @@
         <v>98</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>423</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -49122,13 +49062,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2293</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2294</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2295</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -49206,7 +49146,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BB230" s="1">
         <v>5</v>
@@ -49224,7 +49164,7 @@
         <v>111</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BI230" s="1" t="s">
         <v>1731</v>
@@ -49239,13 +49179,13 @@
         <v>205</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>118</v>
@@ -49263,13 +49203,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2300</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2301</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2302</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -49304,13 +49244,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2303</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2304</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2305</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -49388,7 +49328,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BB231" s="1">
         <v>5</v>
@@ -49406,7 +49346,7 @@
         <v>111</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="BI231" s="1" t="s">
         <v>1637</v>
@@ -49421,13 +49361,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>118</v>
@@ -49445,13 +49385,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2311</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2312</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -49486,13 +49426,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2313</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2314</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2315</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -49573,7 +49513,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BB232" s="1">
         <v>5</v>
@@ -49591,7 +49531,7 @@
         <v>111</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1691</v>
@@ -49603,7 +49543,7 @@
         <v>103</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>118</v>
@@ -49621,13 +49561,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>797</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -49662,13 +49602,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2321</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2322</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2323</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -49704,7 +49644,7 @@
         <v>104</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1700</v>
@@ -49749,7 +49689,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BB233" s="1">
         <v>5</v>
@@ -49767,7 +49707,7 @@
         <v>111</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>1691</v>
@@ -49779,7 +49719,7 @@
         <v>103</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>118</v>
@@ -49800,10 +49740,10 @@
         <v>1418</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2328</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2329</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -49838,13 +49778,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2331</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2332</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -49925,7 +49865,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BB234" s="1">
         <v>5</v>
@@ -49943,7 +49883,7 @@
         <v>111</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="BI234" s="1" t="s">
         <v>1776</v>
@@ -49955,7 +49895,7 @@
         <v>103</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>118</v>
@@ -49979,7 +49919,7 @@
         <v>866</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -50014,13 +49954,13 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2337</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2338</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2339</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -50101,7 +50041,7 @@
         <v>98</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BB235" s="1">
         <v>5</v>
@@ -50119,10 +50059,10 @@
         <v>111</v>
       </c>
       <c r="BH235" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="BI235" s="1" t="s">
         <v>2341</v>
-      </c>
-      <c r="BI235" s="1" t="s">
-        <v>2342</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>114</v>
@@ -50131,7 +50071,7 @@
         <v>103</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>118</v>
@@ -50149,13 +50089,13 @@
         <v>98</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2346</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -50190,13 +50130,13 @@
         <v>314</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2347</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2348</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2349</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -50238,7 +50178,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -50277,13 +50217,13 @@
         <v>111</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>118</v>
@@ -50301,13 +50241,13 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>296</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -50342,13 +50282,13 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2355</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2356</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2357</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -50390,7 +50330,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>104</v>
@@ -50444,7 +50384,7 @@
         <v>17</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="BE237" s="1" t="s">
         <v>109</v>
@@ -50456,10 +50396,10 @@
         <v>111</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2359</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2360</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>114</v>
@@ -50471,13 +50411,13 @@
         <v>205</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>118</v>
@@ -50498,7 +50438,7 @@
         <v>98</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>286</v>
@@ -50539,13 +50479,13 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2364</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2365</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2366</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>97</v>
@@ -50641,10 +50581,10 @@
         <v>111</v>
       </c>
       <c r="BH238" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="BI238" s="1" t="s">
         <v>2367</v>
-      </c>
-      <c r="BI238" s="1" t="s">
-        <v>2368</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>114</v>
@@ -50656,13 +50596,13 @@
         <v>115</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BS238" s="3">
         <v>37747</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>118</v>
@@ -50686,7 +50626,7 @@
         <v>627</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -50721,13 +50661,13 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2372</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2373</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2374</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>97</v>
@@ -50823,7 +50763,7 @@
         <v>111</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>114</v>
@@ -50832,7 +50772,7 @@
         <v>103</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>118</v>
@@ -50850,13 +50790,13 @@
         <v>98</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2377</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2378</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2379</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -50891,13 +50831,13 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2382</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>97</v>
@@ -50993,7 +50933,7 @@
         <v>111</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BI240" s="1" t="s">
         <v>845</v>
@@ -51005,7 +50945,7 @@
         <v>103</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>118</v>
@@ -51023,13 +50963,13 @@
         <v>98</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="CD240" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="CD240" s="1" t="s">
+      <c r="CE240" s="1" t="s">
         <v>2386</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2387</v>
       </c>
     </row>
     <row r="241" spans="1:83" x14ac:dyDescent="0.25">
@@ -51064,13 +51004,13 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2388</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2389</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2390</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>97</v>
@@ -51166,10 +51106,10 @@
         <v>111</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2392</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>114</v>
@@ -51181,13 +51121,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BS241" s="3">
         <v>37334</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>118</v>
@@ -51208,10 +51148,10 @@
         <v>505</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2395</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2396</v>
       </c>
     </row>
     <row r="242" spans="1:83" x14ac:dyDescent="0.25">
@@ -51246,13 +51186,13 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2397</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2398</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2399</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>97</v>
@@ -51348,10 +51288,10 @@
         <v>111</v>
       </c>
       <c r="BH242" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="BI242" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="BI242" s="1" t="s">
-        <v>2401</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>114</v>
@@ -51363,13 +51303,13 @@
         <v>99</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BS242" s="3">
         <v>37904</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>118</v>
@@ -51390,10 +51330,10 @@
         <v>866</v>
       </c>
       <c r="CD242" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2404</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2405</v>
       </c>
     </row>
     <row r="243" spans="1:83" x14ac:dyDescent="0.25">
@@ -51428,13 +51368,13 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2406</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2407</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2408</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
@@ -51527,7 +51467,7 @@
         <v>111</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>114</v>
@@ -51539,13 +51479,13 @@
         <v>115</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="BS243" s="3">
         <v>36111</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>118</v>
@@ -51563,13 +51503,13 @@
         <v>98</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="244" spans="1:83" x14ac:dyDescent="0.25">
@@ -51604,13 +51544,13 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2415</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2416</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
@@ -51706,10 +51646,10 @@
         <v>111</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BI244" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>114</v>
@@ -51721,13 +51661,13 @@
         <v>115</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="BS244" s="3">
         <v>37785</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>118</v>
@@ -51745,13 +51685,13 @@
         <v>98</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2420</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2421</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2422</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -51786,13 +51726,13 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2423</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2424</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2425</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
@@ -51888,7 +51828,7 @@
         <v>111</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>114</v>
@@ -51897,7 +51837,7 @@
         <v>103</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>118</v>
@@ -51918,10 +51858,10 @@
         <v>1135</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2428</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2429</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -51959,10 +51899,10 @@
         <v>248</v>
       </c>
       <c r="L246" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="M246" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="M246" s="1" t="s">
-        <v>2431</v>
       </c>
       <c r="N246" s="1" t="s">
         <v>250</v>
@@ -51995,7 +51935,7 @@
         <v>42582</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>104</v>
@@ -52046,10 +51986,10 @@
         <v>251</v>
       </c>
       <c r="BH246" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="BI246" s="1" t="s">
         <v>2433</v>
-      </c>
-      <c r="BI246" s="1" t="s">
-        <v>2434</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>114</v>
@@ -52123,16 +52063,16 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="M247" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>2436</v>
-      </c>
-      <c r="M247" s="1" t="s">
-        <v>2431</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2437</v>
       </c>
       <c r="Q247" s="3">
         <v>17060</v>
@@ -52168,7 +52108,7 @@
         <v>42628</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>104</v>
@@ -52219,16 +52159,16 @@
         <v>98</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BD247" s="1" t="s">
         <v>218</v>
       </c>
       <c r="BH247" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="BI247" s="1" t="s">
         <v>2440</v>
-      </c>
-      <c r="BI247" s="1" t="s">
-        <v>2441</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>114</v>
@@ -52237,7 +52177,7 @@
         <v>103</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>118</v>
@@ -52261,7 +52201,7 @@
         <v>122</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -52296,16 +52236,16 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2444</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="M248" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="N248" s="1" t="s">
         <v>2445</v>
-      </c>
-      <c r="M248" s="1" t="s">
-        <v>2431</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2446</v>
       </c>
       <c r="Q248" s="3">
         <v>26864</v>
@@ -52335,7 +52275,7 @@
         <v>42735</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>104</v>
@@ -52386,7 +52326,7 @@
         <v>99</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>114</v>
@@ -52398,13 +52338,13 @@
         <v>205</v>
       </c>
       <c r="BR248" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BS248" s="3">
         <v>102</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>118</v>
@@ -52425,13 +52365,13 @@
         <v>98</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="CD248" s="1" t="s">
         <v>2451</v>
       </c>
-      <c r="CD248" s="1" t="s">
+      <c r="CE248" s="1" t="s">
         <v>2452</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2453</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -52466,16 +52406,16 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="M249" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="N249" s="1" t="s">
         <v>2455</v>
-      </c>
-      <c r="M249" s="1" t="s">
-        <v>2431</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2456</v>
       </c>
       <c r="Q249" s="3">
         <v>17041</v>
@@ -52502,7 +52442,7 @@
         <v>42735</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>104</v>
@@ -52553,7 +52493,7 @@
         <v>98</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>114</v>
@@ -52562,7 +52502,7 @@
         <v>103</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>118</v>
@@ -52583,16 +52523,17 @@
         <v>98</v>
       </c>
       <c r="CC249" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="CD249" s="1" t="s">
         <v>2459</v>
       </c>
-      <c r="CD249" s="1" t="s">
+      <c r="CE249" s="1" t="s">
         <v>2460</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>2461</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF249" xr:uid="{500C7607-E78F-441B-B4E9-96C262523C4A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>